--- a/05 Sent to client/A4_final_report.xlsx
+++ b/05 Sent to client/A4_final_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejas/Documents/CareerFoundry_DataAnalytics/Data Immersion/A4/Scripts for Github/05 Sent to client/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejas/Documents/CareerFoundry_DataAnalytics/Data Immersion/A4/For Github/05 Sent to client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D9E78-C36B-5B4C-BD61-F0FACE21B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2190FC-CB28-D443-85AD-B78307C9DE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7100" yWindow="-28300" windowWidth="51200" windowHeight="24720" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3411,6 +3411,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3453,8 +3455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15099,7 +15099,7 @@
               <a:ea typeface="Adobe Fan Heiti Std B" panose="020B0700000000000000" pitchFamily="34" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>March</a:t>
+            <a:t>September</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -20298,17 +20298,17 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="79"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="20"/>
     </row>
     <row r="25" spans="2:4" ht="16">
@@ -20422,7 +20422,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="32">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="82" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -20436,7 +20436,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="32">
-      <c r="B9" s="80"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="24" t="s">
         <v>120</v>
       </c>
@@ -20509,7 +20509,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" s="9" customFormat="1" ht="33" thickTop="1">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="83" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="58" t="s">
@@ -20522,7 +20522,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="16">
-      <c r="B8" s="82"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37" t="s">
         <v>103</v>
@@ -20533,7 +20533,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="64">
-      <c r="B9" s="82"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38" t="s">
@@ -20544,7 +20544,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="33" thickBot="1">
-      <c r="B10" s="83"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
       <c r="E10" s="62" t="s">
@@ -20553,7 +20553,7 @@
       <c r="F10" s="63"/>
     </row>
     <row r="11" spans="2:9" ht="16">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="67" t="s">
@@ -20566,7 +20566,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="16">
-      <c r="B12" s="85"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="18" t="s">
         <v>105</v>
       </c>
@@ -20577,7 +20577,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="16">
-      <c r="B13" s="85"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="18" t="s">
         <v>106</v>
       </c>
@@ -20588,7 +20588,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="32">
-      <c r="B14" s="85"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="16"/>
       <c r="D14" s="18" t="s">
         <v>107</v>
@@ -20599,7 +20599,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="32">
-      <c r="B15" s="85"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="16"/>
       <c r="D15" s="18" t="s">
         <v>108</v>
@@ -20610,7 +20610,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="32">
-      <c r="B16" s="85"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="16"/>
       <c r="D16" s="18" t="s">
         <v>109</v>
@@ -20621,7 +20621,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="17" thickBot="1">
-      <c r="B17" s="86"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="70"/>
       <c r="D17" s="71" t="s">
         <v>110</v>
@@ -20690,7 +20690,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="17" thickTop="1">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="89" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="48" t="s">
@@ -20704,7 +20704,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="48">
-      <c r="B8" s="88"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="34" t="s">
         <v>38</v>
       </c>
@@ -20716,7 +20716,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="144">
-      <c r="B9" s="88"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="34" t="s">
         <v>30</v>
       </c>
@@ -20728,7 +20728,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="96">
-      <c r="B10" s="88"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
@@ -20740,7 +20740,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="16">
-      <c r="B11" s="88"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="34" t="s">
         <v>32</v>
       </c>
@@ -20752,7 +20752,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="64">
-      <c r="B12" s="88"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="34" t="s">
         <v>33</v>
       </c>
@@ -20764,7 +20764,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="16">
-      <c r="B13" s="88"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="34" t="s">
         <v>34</v>
       </c>
@@ -20776,7 +20776,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="32">
-      <c r="B14" s="88"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="34" t="s">
         <v>35</v>
       </c>
@@ -20788,7 +20788,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="16">
-      <c r="B15" s="88"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="34" t="s">
         <v>36</v>
       </c>
@@ -20800,7 +20800,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="97" thickBot="1">
-      <c r="B16" s="89"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="50" t="s">
         <v>37</v>
       </c>
@@ -20812,7 +20812,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="16">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="92" t="s">
         <v>93</v>
       </c>
       <c r="C17" s="53" t="s">
@@ -20826,7 +20826,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="33" thickBot="1">
-      <c r="B18" s="89"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="56" t="s">
         <v>88</v>
       </c>
@@ -20838,7 +20838,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="409.6">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="90" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -20852,7 +20852,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="113" thickBot="1">
-      <c r="B20" s="91"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="39" t="s">
         <v>98</v>
       </c>
@@ -21592,7 +21592,7 @@
       <c r="F304" s="13">
         <v>0.33</v>
       </c>
-      <c r="G304" s="93">
+      <c r="G304" s="79">
         <f>F304/E304-1</f>
         <v>-0.15384615384615385</v>
       </c>
@@ -21607,7 +21607,7 @@
       <c r="F305" s="15">
         <v>0.26</v>
       </c>
-      <c r="G305" s="92">
+      <c r="G305" s="78">
         <f t="shared" ref="G305:G307" si="0">F305/E305-1</f>
         <v>8.3333333333333481E-2</v>
       </c>
@@ -21622,7 +21622,7 @@
       <c r="F306" s="15">
         <v>0.24</v>
       </c>
-      <c r="G306" s="92">
+      <c r="G306" s="78">
         <f t="shared" si="0"/>
         <v>0.14285714285714279</v>
       </c>
@@ -21637,7 +21637,7 @@
       <c r="F307" s="15">
         <v>0.18</v>
       </c>
-      <c r="G307" s="92">
+      <c r="G307" s="78">
         <f t="shared" si="0"/>
         <v>5.8823529411764497E-2</v>
       </c>
